--- a/Mouse Settings_2.xlsx
+++ b/Mouse Settings_2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,13 +865,19 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>1600</v>
+      </c>
+      <c r="C15">
+        <v>2.556</v>
+      </c>
+      <c r="D15">
+        <f>(360*2.54)/(0.022*B15*C15)</f>
+        <v>10.16325224071703</v>
+      </c>
+      <c r="E15">
+        <f>360/(0.022*B15*C15)</f>
+        <v>4.0012804097311143</v>
       </c>
       <c r="G15">
         <v>1600</v>
@@ -889,27 +895,33 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>1600</v>
+      </c>
+      <c r="C16">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="D16">
+        <f>(360*2.54)/(0.022*B16*C16)</f>
+        <v>16.524982650936849</v>
+      </c>
+      <c r="E16">
+        <f>360/(0.022*B16*C16)</f>
+        <v>6.5058986814712014</v>
       </c>
       <c r="G16">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1.731733696</v>
+        <f>(360*2.54)/(0.022*G16)/I16</f>
+        <v>2.5977272727272731</v>
       </c>
       <c r="I16">
-        <v>30.001463605259467</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>11.811599844590342</v>
+        <v>3.9370078740157481</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
@@ -1498,11 +1510,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G41">
-        <v>400</v>
+        <v>16000</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>4.0909090909090917</v>
+        <v>0.10227272727272728</v>
       </c>
       <c r="I41">
         <v>25.4</v>

--- a/Mouse Settings_2.xlsx
+++ b/Mouse Settings_2.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0773C1-14D7-4147-8F59-913DE5D20B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="2475" windowHeight="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -70,9 +73,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,10 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -134,6 +146,2620 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2658-4B77-802E-9126714007AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.156363636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.309090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.227272729999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4610389610000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2658-4B77-802E-9126714007AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>15.280748663101607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.561497326203213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.646343365039769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.000000002187232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.555194805194805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.844155844155845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.00000000177166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.321678321678323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.159999997290667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.988636363636365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.97727272727273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.16325224071703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.431818181818183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.988636363636365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.280748663101607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.31818181818182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.561497326203213</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.801763453937365</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.780000000474132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.63636363636364</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.807851239669422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.977272727272723</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2658-4B77-802E-9126714007AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.0160427807486645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.032085561497329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.033993450803058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8425196859004842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3051948051948061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8441558441558445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.716535433768371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2447552447552459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9999999989333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1136363636363642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.227272727272728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0012804097311143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6818181818181825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1136363636363642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0160427807486645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.032085561497329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.945576162967468</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0000000001866667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6487603305785123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.227272727272727</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2658-4B77-802E-9126714007AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2089846112"/>
+        <c:axId val="2083740608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2089846112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083740608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083740608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089846112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3B7-4D69-9501-A0A3AEB3A97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.156363636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.309090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.227272729999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4610389610000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3B7-4D69-9501-A0A3AEB3A97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>15.280748663101607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.561497326203213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.646343365039769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.000000002187232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.555194805194805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.844155844155845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.00000000177166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.321678321678323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.159999997290667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.988636363636365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.97727272727273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.16325224071703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.431818181818183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.988636363636365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.280748663101607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.31818181818182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.561497326203213</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.801763453937365</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.780000000474132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.63636363636364</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.807851239669422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.977272727272723</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3B7-4D69-9501-A0A3AEB3A97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6.0160427807486645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.032085561497329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.033993450803058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8425196859004842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3051948051948061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8441558441558445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.716535433768371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2447552447552459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9999999989333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1136363636363642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.227272727272728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0012804097311143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6818181818181825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1136363636363642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0160427807486645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.032085561497329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.945576162967468</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0000000001866667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6487603305785123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.227272727272727</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3B7-4D69-9501-A0A3AEB3A97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2087222352"/>
+        <c:axId val="2083742272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2087222352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083742272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083742272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087222352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{97E048DF-659A-486A-A4D1-612A6209990B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="62" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3A6ED6E1-C5B8-4968-ABBD-D3BDD6FF2603}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="62" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664677" cy="6298790"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38682E1-1E57-4A16-A3AC-B7FDDBCCF920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664677" cy="6298790"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C2AE3D-2B13-4F03-99DD-1FAA9294B6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -212,6 +2838,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -247,6 +2890,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,11 +3082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +3162,7 @@
         <v>29.795000000000002</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J16" si="0">360/(0.022*G3*H3)</f>
+        <f t="shared" ref="J3:J15" si="0">360/(0.022*G3*H3)</f>
         <v>11.730314960629922</v>
       </c>
       <c r="L3" t="s">
@@ -571,10 +3231,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -596,19 +3256,19 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1.6499792128603106</v>
+        <v>0.96212121212121227</v>
       </c>
       <c r="I6">
-        <v>15.744</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>6.1984251968503941</v>
-      </c>
-      <c r="L6" s="3" t="s">
+        <v>10.62992125984252</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="4"/>
       <c r="N6" t="s">
         <v>15</v>
       </c>
@@ -642,25 +3302,25 @@
         <f t="shared" si="0"/>
         <v>9.266147255905512</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>8.0549682875264264</v>
+        <v>18.555194805194805</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>3.1712473572938689</v>
+        <v>7.3051948051948061</v>
       </c>
       <c r="G8">
         <v>1600</v>
@@ -676,10 +3336,10 @@
         <f t="shared" si="0"/>
         <v>11.58268406942689</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="4"/>
       <c r="N8" t="s">
         <v>16</v>
       </c>
@@ -812,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f>(360*2.54)/(0.022*B13*C13)</f>
         <v>12.988636363636365</v>
       </c>
       <c r="E13">
@@ -839,15 +3499,15 @@
         <v>400</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>29.688311688311689</v>
+        <v>25.97727272727273</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>11.688311688311689</v>
+        <v>10.227272727272728</v>
       </c>
       <c r="G14">
         <v>1600</v>
@@ -899,111 +3559,135 @@
         <v>1600</v>
       </c>
       <c r="C16">
-        <v>1.5720000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="D16">
         <f>(360*2.54)/(0.022*B16*C16)</f>
-        <v>16.524982650936849</v>
+        <v>14.431818181818183</v>
       </c>
       <c r="E16">
         <f>360/(0.022*B16*C16)</f>
-        <v>6.5058986814712014</v>
+        <v>5.6818181818181825</v>
       </c>
       <c r="G16">
         <v>1600</v>
       </c>
       <c r="H16">
         <f>(360*2.54)/(0.022*G16)/I16</f>
-        <v>2.5977272727272731</v>
+        <v>1.5280748663101607</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>3.9370078740157481</v>
+        <f>360/(0.022*G16*H16)</f>
+        <v>6.6929133858267713</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" t="e">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" t="e">
+        <v>12.988636363636365</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.1136363636363642</v>
       </c>
       <c r="G17">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.29375</v>
+        <v>0.76403743315508033</v>
       </c>
       <c r="I17">
-        <v>40.158102766798422</v>
+        <v>34</v>
       </c>
       <c r="J17">
         <f>360/(0.022*G17*H17)</f>
-        <v>15.8102766798419</v>
+        <v>13.385826771653543</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="e">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" t="e">
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>6.0160427807486645</v>
       </c>
       <c r="G18">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>2.5874999999999999</v>
+        <v>0.61850649350649356</v>
       </c>
       <c r="I18">
-        <v>40.158102766798422</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18:J41" si="4">360/(0.022*G18*H18)</f>
-        <v>15.8102766798419</v>
+        <v>16.535433070866141</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="e">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1600</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" t="e">
+        <v>17.31818181818182</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="G19">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>1.731733696</v>
+        <v>0.76403743315508033</v>
       </c>
       <c r="I19">
-        <v>30.001463605259467</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>11.811599844590342</v>
+        <v>13.385826771653543</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="e">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20">
+        <v>3.4</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" t="e">
+        <v>30.561497326203213</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12.032085561497329</v>
       </c>
       <c r="G20">
         <v>400</v>
@@ -1020,14 +3704,20 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" t="e">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1150</v>
+      </c>
+      <c r="C21">
+        <v>1.3</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" t="e">
+        <v>27.801763453937365</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>10.945576162967468</v>
       </c>
       <c r="G21">
         <v>800</v>
@@ -1044,14 +3734,20 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="e">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1600</v>
+      </c>
+      <c r="C22">
+        <v>1.4610389610000001</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>17.780000000474132</v>
+      </c>
+      <c r="E22">
+        <f>360/(0.022*B22*C22)</f>
+        <v>7.0000000001866667</v>
       </c>
       <c r="G22">
         <v>400</v>
@@ -1068,14 +3764,20 @@
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="e">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>800</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" t="e">
+        <v>34.63636363636364</v>
+      </c>
+      <c r="E23">
         <f>360/(0.022*B23*C23)</f>
-        <v>#DIV/0!</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="G23">
         <v>400</v>
@@ -1092,14 +3794,20 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" t="e">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1600</v>
+      </c>
+      <c r="C24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" t="e">
+        <v>11.807851239669422</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.6487603305785123</v>
       </c>
       <c r="G24">
         <v>400</v>
@@ -1116,14 +3824,20 @@
         <v>6.1983471074380176</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="e">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>3.2</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" t="e">
+        <v>25.977272727272723</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>10.227272727272727</v>
       </c>
       <c r="G25">
         <v>400</v>
@@ -1140,7 +3854,7 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1164,7 +3878,7 @@
         <v>14.448818897637796</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1178,17 +3892,17 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>3.8743136058572305</v>
+        <v>2.9688311688311693</v>
       </c>
       <c r="I27">
-        <v>26.82</v>
+        <v>35</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>10.559055118110235</v>
+        <v>13.779527559055117</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1212,7 +3926,7 @@
         <v>15.748031496062993</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1236,7 +3950,7 @@
         <v>3.1889763779527556</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1246,21 +3960,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G30">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>5.1954545454545462</v>
+        <v>2.5977272727272731</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>7.8740157480314963</v>
+        <f>360/(0.022*G30*H30)</f>
+        <v>3.9370078740157481</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1284,7 +3998,7 @@
         <v>3.1712473572938684</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1462,18 +4176,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G39">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>8.1818181818181834</v>
+        <v>1.1363636363636365</v>
       </c>
       <c r="I39">
-        <v>12.7</v>
+        <v>22.86</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>360/(0.022*G39*H39)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
@@ -1486,18 +4200,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G40">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>3.4874673908068776</v>
+        <v>0.99912587412587428</v>
       </c>
       <c r="I40">
-        <v>29.795000000000002</v>
+        <v>26</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>11.730314960629922</v>
+        <v>10.236220472440944</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
@@ -1510,18 +4224,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G41">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>0.10227272727272728</v>
+        <v>1.4610389610389611</v>
       </c>
       <c r="I41">
-        <v>25.4</v>
+        <v>17.78</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
